--- a/demo.xlsx
+++ b/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ETEST\ttcn2_ETest-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\E_Test_Project\backend\End_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F679072D-84A6-4AE2-A5B4-C9CFABE33B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C571690-53F4-49B5-829C-97CFB6BF171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97506B10-8B50-4675-AC5C-1DF99F5F7997}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="136">
   <si>
     <t xml:space="preserve">Tên bài thi </t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>toeic</t>
+  </si>
+  <si>
+    <t>Miễn phí</t>
   </si>
 </sst>
 </file>
@@ -901,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CD3AAA-3129-4768-B0E8-D98195345BA4}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +930,7 @@
     <col min="18" max="18" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -982,8 +985,11 @@
       <c r="R1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="S1" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1032,8 +1038,11 @@
       <c r="R2" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="11"/>
@@ -1069,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="11"/>
@@ -1105,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="11"/>
@@ -1141,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="11"/>
@@ -1177,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="11"/>
@@ -1219,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="11"/>
@@ -1255,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="11"/>
@@ -1291,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="11"/>
@@ -1327,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="11"/>
@@ -1369,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>70</v>
       </c>
@@ -1395,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11"/>
       <c r="H13" s="1" t="s">
         <v>75</v>
@@ -1422,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="11"/>
       <c r="H14" s="1" t="s">
         <v>80</v>
@@ -1449,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>42</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="11"/>
       <c r="H16" s="1" t="s">
         <v>91</v>
